--- a/xlsx/小麦_intext.xlsx
+++ b/xlsx/小麦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t>小麦</t>
   </si>
@@ -29,7 +29,7 @@
     <t>生物分类学</t>
   </si>
   <si>
-    <t>政策_政策_美國_小麦</t>
+    <t>政策_政策_美国_小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%AD%90%E8%91%89%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>單子葉植物</t>
+    <t>单子叶植物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%AD%E8%B7%96%E8%8D%89%E7%B1%BB%E6%A4%8D%E7%89%A9</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中東地區</t>
+    <t>中东地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AF%E8%8C%83%E7%89%B9</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F</t>
   </si>
   <si>
-    <t>糧食</t>
+    <t>粮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海氣候</t>
+    <t>地中海气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BB%99%E5%A5%B3%E6%9C%A8%E4%BA%8B%E4%BB%B6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%B1%B3</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%81%B2%E5%AD%97</t>
   </si>
   <si>
-    <t>形聲字</t>
+    <t>形声字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2</t>
   </si>
   <si>
-    <t>西漢</t>
+    <t>西汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%A3%A8</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E7%B2%89</t>
   </si>
   <si>
-    <t>麵粉</t>
+    <t>面粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E9%A3%9F</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E6%A2%9D</t>
   </si>
   <si>
-    <t>麵條</t>
+    <t>面条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%85%E9%A0%AD</t>
   </si>
   <si>
-    <t>饅頭</t>
+    <t>馒头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97</t>
   </si>
   <si>
-    <t>華北</t>
+    <t>华北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%8D%89%E6%8B%BE%E9%81%BA</t>
   </si>
   <si>
-    <t>本草拾遺</t>
+    <t>本草拾遗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E9%81%93%E5%A4%A7%E5%AD%A6</t>
@@ -371,7 +371,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%9D%82%E6%9D%91%E5%BE%B9</t>
   </si>
   <si>
-    <t>ja-坂村徹</t>
+    <t>ja-坂村彻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hitoshi_Kihara</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%96</t>
   </si>
   <si>
-    <t>莖</t>
+    <t>茎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89</t>
   </si>
   <si>
-    <t>葉</t>
+    <t>叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1</t>
@@ -419,37 +419,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BE%8D%E6%B1%9F</t>
   </si>
   <si>
-    <t>黑龍江</t>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%92%99%E5%8F%A4</t>
   </si>
   <si>
-    <t>內蒙古</t>
+    <t>内蒙古</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E6%9D%B1</t>
   </si>
   <si>
-    <t>遼東</t>
+    <t>辽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF</t>
   </si>
   <si>
-    <t>陝西</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B1%9F</t>
   </si>
   <si>
-    <t>長江</t>
+    <t>长江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8E%E6%9E%9C</t>
   </si>
   <si>
-    <t>穎果</t>
+    <t>颖果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E9%A3%9F</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>麵包</t>
+    <t>面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%85%E4%B9%BE</t>
   </si>
   <si>
-    <t>餅乾</t>
+    <t>饼干</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%B3%95</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E6%A2%9D</t>
   </si>
   <si>
-    <t>油條</t>
+    <t>油条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%A5%BC</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%A4%83</t>
   </si>
   <si>
-    <t>水餃</t>
+    <t>水饺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%8E%E9%A4%83</t>
   </si>
   <si>
-    <t>煎餃</t>
+    <t>煎饺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E5%AD%90</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%90%9E</t>
   </si>
   <si>
-    <t>雲吞</t>
+    <t>云吞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E5%8D%B7</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%BC%8F%E9%BA%B5%E9%A3%9F</t>
   </si>
   <si>
-    <t>意式麵食</t>
+    <t>意式面食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E7%B1%B3</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%BE%8D%E9%BA%B5</t>
   </si>
   <si>
-    <t>烏龍麵</t>
+    <t>乌龙面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5</t>
   </si>
   <si>
-    <t>義大利麵</t>
+    <t>义大利面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%85%B5</t>
   </si>
   <si>
-    <t>發酵</t>
+    <t>发酵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%A4%E9%85%92</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%95%9C</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%BC%E6%96%99</t>
   </si>
   <si>
-    <t>飼料</t>
+    <t>饲料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -647,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E8%83%BA</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%85%B8</t>
@@ -701,67 +701,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0E</t>
   </si>
   <si>
-    <t>維生素E</t>
+    <t>维生素E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0K</t>
   </si>
   <si>
-    <t>維生素K</t>
+    <t>维生素K</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>鈣營養</t>
+    <t>钙营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>磷營養</t>
+    <t>磷营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%85%8B</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B1%E7%B2%89</t>
   </si>
   <si>
-    <t>澱粉</t>
+    <t>淀粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>礦物質</t>
+    <t>矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E8%83%BA%E7%B4%A0</t>
@@ -863,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -947,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1001,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -1043,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%B2%92%E5%B0%8F%E9%BA%A6</t>
@@ -1061,15 +1061,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E7%AD%8B_(%E9%A3%9F%E5%93%81)</t>
   </si>
   <si>
-    <t>麵筋 (食品)</t>
+    <t>面筋 (食品)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
@@ -1079,9 +1076,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E7%B2%89</t>
   </si>
   <si>
-    <t>面粉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%B7%9E%E6%8B%89%E9%9D%A2</t>
   </si>
   <si>
@@ -1109,33 +1103,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5%E8%8D%89</t>
   </si>
   <si>
-    <t>小麥草</t>
+    <t>小麦草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A9%80%E7%89%A9</t>
   </si>
   <si>
-    <t>Template talk-穀物</t>
+    <t>Template talk-谷物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9</t>
   </si>
   <si>
-    <t>穀物</t>
+    <t>谷物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E7%A9%80%E7%89%A9</t>
   </si>
   <si>
-    <t>準穀物</t>
+    <t>准谷物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%A5</t>
   </si>
   <si>
-    <t>大麥</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Fonio</t>
   </si>
   <si>
@@ -1163,19 +1154,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A5</t>
   </si>
   <si>
-    <t>燕麥</t>
+    <t>燕麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BA%A5</t>
   </si>
   <si>
-    <t>黑麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B2%B1%E5%B1%AC</t>
   </si>
   <si>
-    <t>高粱屬</t>
+    <t>高粱属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E9%BA%B8</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>黑小麥</t>
+    <t>黑小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%92%B2</t>
@@ -1205,9 +1193,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%AA%E5%8C%85</t>
   </si>
   <si>
@@ -1259,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%8E%E9%BA%A5</t>
   </si>
   <si>
-    <t>蕎麥</t>
+    <t>荞麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E8%8D%9E%E9%BA%A6</t>
@@ -1271,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>莧科</t>
+    <t>苋科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8B%E5%B1%9E</t>
@@ -1313,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E9%BA%A5</t>
   </si>
   <si>
-    <t>藜麥</t>
+    <t>藜麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E5%B1%9E</t>
@@ -1397,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%B4%E9%A4%8A</t>
   </si>
   <si>
-    <t>馴養</t>
+    <t>驯养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -1415,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>人工選擇</t>
+    <t>人工选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E7%89%A9%E9%87%8E%E7%94%9F%E8%BF%91%E7%BC%98%E7%A7%8D</t>
@@ -1451,9 +1436,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A6</t>
   </si>
   <si>
-    <t>燕麦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B2%B1</t>
   </si>
   <si>
@@ -1469,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E7%AD%8D</t>
   </si>
   <si>
-    <t>竹筍</t>
+    <t>竹笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E7%A7%91</t>
@@ -1499,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%B1%86</t>
   </si>
   <si>
-    <t>紅豆</t>
+    <t>红豆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%9C%E8%B1%86</t>
@@ -1655,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>藻類生質燃料</t>
+    <t>藻类生质燃料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bagasse</t>
@@ -1685,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biogasoline</t>
@@ -1703,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Common_ethanol_fuel_mixtures</t>
@@ -1751,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B9%E8%84%82%E8%86%8F</t>
   </si>
   <si>
-    <t>黃油脂膏</t>
+    <t>黄油脂膏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%8D%8B%E6%B2%B9</t>
   </si>
   <si>
-    <t>回鍋油</t>
+    <t>回锅油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%B2%9F%E6%B2%B9</t>
@@ -1841,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%A1%95</t>
   </si>
   <si>
-    <t>烏桕</t>
+    <t>乌桕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E8%90%8D</t>
@@ -1979,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1997,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5503,7 +5485,7 @@
         <v>214</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5532,7 +5514,7 @@
         <v>216</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5561,7 +5543,7 @@
         <v>218</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5590,7 +5572,7 @@
         <v>220</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -5648,7 +5630,7 @@
         <v>224</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5677,7 +5659,7 @@
         <v>226</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -7530,7 +7512,7 @@
         <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7556,10 +7538,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7585,10 +7567,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>100</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7614,10 +7596,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7643,10 +7625,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7672,10 +7654,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7701,10 +7683,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7730,10 +7712,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7759,10 +7741,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>9</v>
@@ -7788,10 +7770,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>7</v>
@@ -7817,10 +7799,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7846,10 +7828,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7875,10 +7857,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7904,10 +7886,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7933,10 +7915,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7962,10 +7944,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7991,10 +7973,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8049,10 +8031,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8078,10 +8060,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8107,10 +8089,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8136,10 +8118,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8165,10 +8147,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8194,10 +8176,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8223,10 +8205,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>46</v>
@@ -8281,10 +8263,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8339,10 +8321,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8368,10 +8350,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8397,10 +8379,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8426,10 +8408,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8455,10 +8437,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8513,10 +8495,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8571,10 +8553,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8600,10 +8582,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8629,10 +8611,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8658,10 +8640,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8687,10 +8669,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8716,10 +8698,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8745,10 +8727,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8774,10 +8756,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8803,10 +8785,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8832,10 +8814,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8861,10 +8843,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8890,10 +8872,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8919,10 +8901,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8948,10 +8930,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8977,10 +8959,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9006,10 +8988,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9035,10 +9017,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9064,10 +9046,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9122,10 +9104,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9151,10 +9133,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9180,10 +9162,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9209,10 +9191,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9238,10 +9220,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9267,10 +9249,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9296,10 +9278,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9325,10 +9307,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9354,10 +9336,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9383,10 +9365,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9412,10 +9394,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9441,10 +9423,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9470,10 +9452,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9528,10 +9510,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9557,10 +9539,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -9586,10 +9568,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>379</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9615,10 +9597,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9673,10 +9655,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9702,10 +9684,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9731,10 +9713,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9760,10 +9742,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F256" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9789,10 +9771,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9818,10 +9800,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9847,10 +9829,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9876,10 +9858,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9905,10 +9887,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9934,10 +9916,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9963,10 +9945,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9992,10 +9974,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10021,10 +10003,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10050,10 +10032,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10079,10 +10061,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10108,10 +10090,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10137,10 +10119,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10166,10 +10148,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10195,10 +10177,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10224,10 +10206,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10253,10 +10235,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10282,10 +10264,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10311,10 +10293,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10340,10 +10322,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10369,10 +10351,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10398,10 +10380,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10427,10 +10409,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10456,10 +10438,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10485,10 +10467,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10514,10 +10496,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10543,10 +10525,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10572,10 +10554,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10601,10 +10583,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G285" t="n">
         <v>6</v>
@@ -10630,10 +10612,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10659,10 +10641,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10688,10 +10670,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10717,10 +10699,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10746,10 +10728,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10775,10 +10757,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10804,10 +10786,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10833,10 +10815,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10862,10 +10844,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -10891,10 +10873,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10920,10 +10902,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10949,10 +10931,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10978,10 +10960,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11007,10 +10989,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11036,10 +11018,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11065,10 +11047,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11094,10 +11076,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11123,10 +11105,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11152,10 +11134,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11181,10 +11163,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11210,10 +11192,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11239,10 +11221,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11268,10 +11250,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11297,10 +11279,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11326,10 +11308,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11355,10 +11337,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F311" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G311" t="n">
         <v>4</v>
@@ -11384,10 +11366,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11413,10 +11395,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11442,10 +11424,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11471,10 +11453,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11500,10 +11482,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11529,10 +11511,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11558,10 +11540,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11587,10 +11569,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11616,10 +11598,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11645,10 +11627,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11674,10 +11656,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11703,10 +11685,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11732,10 +11714,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11761,10 +11743,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11790,10 +11772,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11819,10 +11801,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11848,10 +11830,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11877,10 +11859,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11906,10 +11888,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11935,10 +11917,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11964,10 +11946,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11993,10 +11975,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12022,10 +12004,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12051,10 +12033,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12080,10 +12062,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12109,10 +12091,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12138,10 +12120,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12167,10 +12149,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12196,10 +12178,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12225,10 +12207,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>3</v>
@@ -12254,10 +12236,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12283,10 +12265,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12312,10 +12294,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
